--- a/functions/views/res_test.xlsx
+++ b/functions/views/res_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t xml:space="preserve">USN</t>
   </si>
@@ -43,10 +43,7 @@
     <t xml:space="preserve">KPS</t>
   </si>
   <si>
-    <t xml:space="preserve">oops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-07-2017</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">1si16cs02</t>
@@ -55,6 +52,9 @@
     <t xml:space="preserve">ADI</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs03</t>
   </si>
   <si>
@@ -76,7 +76,85 @@
     <t xml:space="preserve">1si16cs06</t>
   </si>
   <si>
-    <t xml:space="preserve">SHK</t>
+    <t xml:space="preserve">shk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shk14</t>
   </si>
 </sst>
 </file>
@@ -182,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,14 +295,14 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="L2" s="2"/>
@@ -232,19 +310,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
+      <c r="C3" s="0" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8.88</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="L3" s="2"/>
@@ -257,14 +335,14 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
+      <c r="C4" s="0" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="G4" s="2"/>
       <c r="L4" s="2"/>
@@ -277,14 +355,14 @@
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>4</v>
+      <c r="C5" s="0" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>8.64</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="2"/>
       <c r="L5" s="2"/>
@@ -297,14 +375,14 @@
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>5</v>
+      <c r="C6" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="2"/>
       <c r="L6" s="2"/>
@@ -317,18 +395,239 @@
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6</v>
+      <c r="C7" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8.40000000000001</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="2"/>
       <c r="L7" s="2"/>
       <c r="Q7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9.12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8.28000000000001</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9.14</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8.16000000000001</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8.04000000000001</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7.92000000000001</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7.80000000000001</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>7.68000000000001</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>7.56000000000001</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>7.44000000000001</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>9.28</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7.32000000000001</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7.20000000000002</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7.08000000000002</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>6.96000000000002</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6.84000000000002</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
